--- a/Plan/Priorities.xlsx
+++ b/Plan/Priorities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fquad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\fquad\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plan/Priorities.xlsx
+++ b/Plan/Priorities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\fquad\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fquad\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
